--- a/企画書＆ガントチャート/ガントチャート２.xlsx
+++ b/企画書＆ガントチャート/ガントチャート２.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12219857-BA99-4A04-8081-D7A33BBE2C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD39AEB-9428-46EF-A3BC-DEC06AE1A9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>プロジェクト計画シート</t>
   </si>
@@ -70,72 +70,7 @@
     <t>完了率 (計画超過)</t>
   </si>
   <si>
-    <t>プレイヤー（絵）</t>
-    <rPh sb="6" eb="7">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>マップチップ</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>プレイヤー動作</t>
-    <rPh sb="5" eb="7">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>マップ</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
     <t>タイトル</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>ゲームオーバー</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>セーブ</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>ポーズ設定</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>音量設定</t>
-    <rPh sb="0" eb="4">
-      <t>オンリョウセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>音</t>
-    <rPh sb="0" eb="1">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>GO画面</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="29"/>
   </si>
   <si>
@@ -153,18 +88,342 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>キャラデータ</t>
+    <t>鎌野担当</t>
+    <rPh sb="0" eb="2">
+      <t>カマノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タントウ</t>
+    </rPh>
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>教室マップ</t>
+    <t>トイレ</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>トイレ個室壁</t>
+    <rPh sb="3" eb="5">
+      <t>コシツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>トイレ床</t>
+    <rPh sb="3" eb="4">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>トイレ壁最上</t>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>トイレ壁内</t>
+    <rPh sb="3" eb="5">
+      <t>ヘキナイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>GO画面×３</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ホワイトボード右</t>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ホワイトボード左</t>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>エレベーター右上</t>
+    <rPh sb="6" eb="8">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>エレベーター左上</t>
+    <rPh sb="6" eb="8">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>エレベーター右下</t>
+    <rPh sb="6" eb="8">
+      <t>ミギシタ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>エレベーター左下</t>
+    <rPh sb="6" eb="8">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <rPh sb="0" eb="2">
+      <t>イス</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>綾鷹</t>
+    <rPh sb="0" eb="2">
+      <t>アヤタカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>手洗い場</t>
+    <rPh sb="0" eb="2">
+      <t>テアラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>手洗い照明</t>
+    <rPh sb="0" eb="2">
+      <t>テアラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウメイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>血痕１</t>
+    <rPh sb="0" eb="2">
+      <t>ケッコン</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>血痕２</t>
+    <rPh sb="0" eb="2">
+      <t>ケッコン</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>血痕３</t>
+    <rPh sb="0" eb="2">
+      <t>ケッコン</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ハヤシの死体</t>
+    <rPh sb="4" eb="6">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>棚上</t>
+    <rPh sb="0" eb="1">
+      <t>タナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>棚下</t>
+    <rPh sb="0" eb="2">
+      <t>タナシタ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>本棚</t>
+    <rPh sb="0" eb="2">
+      <t>ホンダナ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>敵素材</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>キャラ素材×３</t>
+    <rPh sb="3" eb="5">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>教室廊下床</t>
     <rPh sb="0" eb="2">
       <t>キョウシツ</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロウカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユカ</t>
+    </rPh>
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>トイレチップ</t>
+    <t>教室廊下壁</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロウカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>教室廊下壁最上</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロウカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイウエ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ドア上</t>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ドア下</t>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>市原担当</t>
+    <rPh sb="0" eb="2">
+      <t>イチハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>GAMECLEAR</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>GAMEOVER</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>GAMECLEAR２</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>裏世界</t>
+    <rPh sb="0" eb="3">
+      <t>ウラセカイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>音楽挿入</t>
+    <rPh sb="0" eb="4">
+      <t>オンガクソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>powerpoint</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ゲームプレイ用動画撮影</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ドウガサツエイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>動画編集</t>
+    <rPh sb="0" eb="4">
+      <t>ドウガヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>説明書</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイショ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>セーブ　ロード</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -179,7 +438,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -411,8 +670,25 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,8 +903,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -799,6 +1081,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -897,7 +1203,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,14 +1267,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -988,7 +1288,31 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="39" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,10 +1764,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO43"/>
+  <dimension ref="B1:BO188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1476,13 +1800,13 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1490,56 +1814,56 @@
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="23"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
       <c r="AX2" s="18"/>
     </row>
     <row r="3" spans="2:67" s="15" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -1566,12 +1890,12 @@
       <c r="AA3" s="14"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="19">
         <v>1</v>
       </c>
@@ -1754,24 +2078,14 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
-        <v>20</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21">
-        <v>10</v>
-      </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
+      <c r="B5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1795,21 +2109,21 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
+        <v>21</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
         <v>20</v>
       </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21">
-        <v>10</v>
-      </c>
-      <c r="G6" s="22">
+      <c r="E6" s="20">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20">
+        <v>30</v>
+      </c>
+      <c r="G6" s="21">
         <v>1</v>
       </c>
       <c r="H6" s="4"/>
@@ -1835,22 +2149,22 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>30</v>
-      </c>
-      <c r="E7" s="21">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20">
         <v>20</v>
       </c>
-      <c r="F7" s="21">
-        <v>10</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0</v>
+      <c r="G7" s="21">
+        <v>1</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1875,21 +2189,21 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
-        <v>5</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
-        <v>5</v>
-      </c>
-      <c r="G8" s="22">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20">
+        <v>10</v>
+      </c>
+      <c r="F8" s="20">
+        <v>20</v>
+      </c>
+      <c r="G8" s="21">
         <v>1</v>
       </c>
       <c r="H8" s="4"/>
@@ -1915,21 +2229,21 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
+        <v>40</v>
+      </c>
+      <c r="C9" s="20">
         <v>5</v>
       </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21">
-        <v>3</v>
-      </c>
-      <c r="G9" s="22">
+      <c r="D9" s="20">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20">
+        <v>15</v>
+      </c>
+      <c r="F9" s="20">
+        <v>25</v>
+      </c>
+      <c r="G9" s="21">
         <v>1</v>
       </c>
       <c r="H9" s="4"/>
@@ -1955,22 +2269,22 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
-        <v>3</v>
-      </c>
-      <c r="E10" s="21">
-        <v>5</v>
-      </c>
-      <c r="F10" s="21">
-        <v>5</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.5</v>
+        <v>39</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>10</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20">
+        <v>20</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1995,22 +2309,22 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21">
+        <v>16</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
         <v>2</v>
       </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="20">
         <v>4</v>
       </c>
-      <c r="G11" s="22">
-        <v>0.99</v>
+      <c r="G11" s="21">
+        <v>1</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2035,22 +2349,22 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21">
-        <v>3</v>
-      </c>
-      <c r="E12" s="21">
-        <v>20</v>
-      </c>
-      <c r="F12" s="21">
-        <v>10</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2</v>
+      </c>
+      <c r="F12" s="20">
+        <v>4</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2075,22 +2389,22 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21">
-        <v>5</v>
-      </c>
-      <c r="E13" s="21">
-        <v>30</v>
-      </c>
-      <c r="F13" s="21">
-        <v>10</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0.1</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="F13" s="20">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2115,22 +2429,22 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21">
-        <v>10</v>
-      </c>
-      <c r="E14" s="21">
-        <v>30</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2155,22 +2469,22 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="23">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21">
-        <v>6</v>
-      </c>
-      <c r="E15" s="21">
-        <v>30</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20">
+        <v>4</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2197,20 +2511,20 @@
       <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21">
-        <v>20</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21">
-        <v>20</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0.6</v>
+      <c r="C16" s="20">
+        <v>4</v>
+      </c>
+      <c r="D16" s="20">
+        <v>3</v>
+      </c>
+      <c r="E16" s="20">
+        <v>6</v>
+      </c>
+      <c r="F16" s="20">
+        <v>7</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2234,12 +2548,24 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="20">
+        <v>4</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3</v>
+      </c>
+      <c r="E17" s="20">
+        <v>6</v>
+      </c>
+      <c r="F17" s="20">
+        <v>7</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2263,21 +2589,21 @@
     </row>
     <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="20">
-        <v>2</v>
-      </c>
-      <c r="G18" s="30">
+        <v>8</v>
+      </c>
+      <c r="G18" s="21">
         <v>1</v>
       </c>
       <c r="H18" s="4"/>
@@ -2303,21 +2629,21 @@
     </row>
     <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="20">
         <v>3</v>
       </c>
       <c r="E19" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F19" s="20">
-        <v>2</v>
-      </c>
-      <c r="G19" s="30">
+        <v>8</v>
+      </c>
+      <c r="G19" s="21">
         <v>1</v>
       </c>
       <c r="H19" s="4"/>
@@ -2343,21 +2669,21 @@
     </row>
     <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="20">
         <v>3</v>
       </c>
       <c r="E20" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F20" s="20">
-        <v>3</v>
-      </c>
-      <c r="G20" s="30">
+        <v>8</v>
+      </c>
+      <c r="G20" s="21">
         <v>1</v>
       </c>
       <c r="H20" s="4"/>
@@ -2383,21 +2709,21 @@
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" s="20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E21" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" s="20">
-        <v>10</v>
-      </c>
-      <c r="G21" s="30">
+        <v>8</v>
+      </c>
+      <c r="G21" s="21">
         <v>1</v>
       </c>
       <c r="H21" s="4"/>
@@ -2423,13 +2749,23 @@
     </row>
     <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="C22" s="20">
+        <v>7</v>
+      </c>
+      <c r="D22" s="20">
+        <v>8</v>
+      </c>
+      <c r="E22" s="20">
+        <v>9</v>
+      </c>
+      <c r="F22" s="20">
+        <v>11</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -2453,22 +2789,22 @@
     </row>
     <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23" s="20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E23" s="20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23" s="20">
-        <v>5</v>
-      </c>
-      <c r="G23" s="20">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2492,12 +2828,24 @@
       <c r="AA23" s="4"/>
     </row>
     <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>3</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2</v>
+      </c>
+      <c r="F24" s="20">
+        <v>4</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2520,12 +2868,24 @@
       <c r="AA24" s="4"/>
     </row>
     <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <v>3</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2</v>
+      </c>
+      <c r="F25" s="20">
+        <v>4</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2548,12 +2908,24 @@
       <c r="AA25" s="4"/>
     </row>
     <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="20">
+        <v>4</v>
+      </c>
+      <c r="D26" s="20">
+        <v>5</v>
+      </c>
+      <c r="E26" s="20">
+        <v>6</v>
+      </c>
+      <c r="F26" s="20">
+        <v>8</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2576,12 +2948,24 @@
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="20">
+        <v>4</v>
+      </c>
+      <c r="D27" s="20">
+        <v>5</v>
+      </c>
+      <c r="E27" s="20">
+        <v>6</v>
+      </c>
+      <c r="F27" s="20">
+        <v>8</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -2604,12 +2988,24 @@
       <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="20">
+        <v>4</v>
+      </c>
+      <c r="D28" s="20">
+        <v>5</v>
+      </c>
+      <c r="E28" s="20">
+        <v>6</v>
+      </c>
+      <c r="F28" s="20">
+        <v>8</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2632,12 +3028,24 @@
       <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="B29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="20">
+        <v>10</v>
+      </c>
+      <c r="D29" s="20">
+        <v>11</v>
+      </c>
+      <c r="E29" s="20">
+        <v>12</v>
+      </c>
+      <c r="F29" s="20">
+        <v>13</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2660,12 +3068,24 @@
       <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="20">
+        <v>40</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2</v>
+      </c>
+      <c r="E30" s="20">
+        <v>41</v>
+      </c>
+      <c r="F30" s="20">
+        <v>2</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2688,12 +3108,24 @@
       <c r="AA30" s="4"/>
     </row>
     <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="20">
+        <v>40</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2</v>
+      </c>
+      <c r="E31" s="20">
+        <v>41</v>
+      </c>
+      <c r="F31" s="20">
+        <v>2</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -2716,12 +3148,24 @@
       <c r="AA31" s="4"/>
     </row>
     <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20">
+        <v>2</v>
+      </c>
+      <c r="E32" s="20">
+        <v>2</v>
+      </c>
+      <c r="F32" s="20">
+        <v>3</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2744,12 +3188,24 @@
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="20">
+        <v>20</v>
+      </c>
+      <c r="D33" s="20">
+        <v>3</v>
+      </c>
+      <c r="E33" s="20">
+        <v>21</v>
+      </c>
+      <c r="F33" s="20">
+        <v>3</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2772,12 +3228,24 @@
       <c r="AA33" s="4"/>
     </row>
     <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="20">
+        <v>20</v>
+      </c>
+      <c r="D34" s="20">
+        <v>3</v>
+      </c>
+      <c r="E34" s="20">
+        <v>21</v>
+      </c>
+      <c r="F34" s="33">
+        <v>3</v>
+      </c>
+      <c r="G34" s="21">
+        <v>1</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2800,12 +3268,24 @@
       <c r="AA34" s="4"/>
     </row>
     <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="20">
+        <v>20</v>
+      </c>
+      <c r="D35" s="20">
+        <v>3</v>
+      </c>
+      <c r="E35" s="20">
+        <v>21</v>
+      </c>
+      <c r="F35" s="20">
+        <v>3</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2828,12 +3308,24 @@
       <c r="AA35" s="4"/>
     </row>
     <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="20">
+        <v>30</v>
+      </c>
+      <c r="D36" s="20">
+        <v>2</v>
+      </c>
+      <c r="E36" s="20">
+        <v>31</v>
+      </c>
+      <c r="F36" s="20">
+        <v>2</v>
+      </c>
+      <c r="G36" s="21">
+        <v>1</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2856,12 +3348,24 @@
       <c r="AA36" s="4"/>
     </row>
     <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="20">
+        <v>30</v>
+      </c>
+      <c r="D37" s="20">
+        <v>2</v>
+      </c>
+      <c r="E37" s="20">
+        <v>31</v>
+      </c>
+      <c r="F37" s="20">
+        <v>2</v>
+      </c>
+      <c r="G37" s="21">
+        <v>1</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2968,12 +3472,14 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="B41" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2996,12 +3502,14 @@
       <c r="AA41" s="4"/>
     </row>
     <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3024,7 +3532,1411 @@
       <c r="AA42" s="4"/>
     </row>
     <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="16"/>
+      <c r="B43" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="20">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <v>5</v>
+      </c>
+      <c r="E43" s="20">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20">
+        <v>9</v>
+      </c>
+      <c r="G43" s="21">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="20">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <v>5</v>
+      </c>
+      <c r="E44" s="20">
+        <v>50</v>
+      </c>
+      <c r="F44" s="20">
+        <v>51</v>
+      </c>
+      <c r="G44" s="21">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+    </row>
+    <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="20">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20">
+        <v>5</v>
+      </c>
+      <c r="E45" s="20">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20">
+        <v>5</v>
+      </c>
+      <c r="G45" s="21">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+    </row>
+    <row r="46" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="28">
+        <v>10</v>
+      </c>
+      <c r="D46" s="28">
+        <v>20</v>
+      </c>
+      <c r="E46" s="28">
+        <v>10</v>
+      </c>
+      <c r="F46" s="28">
+        <v>15</v>
+      </c>
+      <c r="G46" s="36">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+    </row>
+    <row r="47" spans="2:27" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="20">
+        <v>10</v>
+      </c>
+      <c r="D47" s="20">
+        <v>20</v>
+      </c>
+      <c r="E47" s="20">
+        <v>15</v>
+      </c>
+      <c r="F47" s="20">
+        <v>20</v>
+      </c>
+      <c r="G47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20">
+        <v>10</v>
+      </c>
+      <c r="E50" s="20">
+        <v>1</v>
+      </c>
+      <c r="F50" s="20">
+        <v>30</v>
+      </c>
+      <c r="G50" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="20">
+        <v>45</v>
+      </c>
+      <c r="D51" s="20">
+        <v>45</v>
+      </c>
+      <c r="E51" s="20">
+        <v>45</v>
+      </c>
+      <c r="F51" s="20">
+        <v>45</v>
+      </c>
+      <c r="G51" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="29">
+        <v>1</v>
+      </c>
+      <c r="D52" s="29">
+        <v>10</v>
+      </c>
+      <c r="E52" s="29">
+        <v>3</v>
+      </c>
+      <c r="F52" s="29">
+        <v>5</v>
+      </c>
+      <c r="G52" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="20">
+        <v>18</v>
+      </c>
+      <c r="D53" s="20">
+        <v>30</v>
+      </c>
+      <c r="E53" s="20">
+        <v>18</v>
+      </c>
+      <c r="F53" s="20">
+        <v>23</v>
+      </c>
+      <c r="G53" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="20">
+        <v>40</v>
+      </c>
+      <c r="D55" s="20">
+        <v>50</v>
+      </c>
+      <c r="E55" s="20">
+        <v>40</v>
+      </c>
+      <c r="F55" s="20">
+        <v>60</v>
+      </c>
+      <c r="G55" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="20">
+        <v>40</v>
+      </c>
+      <c r="D56" s="20">
+        <v>50</v>
+      </c>
+      <c r="E56" s="20">
+        <v>40</v>
+      </c>
+      <c r="F56" s="20">
+        <v>58</v>
+      </c>
+      <c r="G56" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="20">
+        <v>40</v>
+      </c>
+      <c r="D57" s="20">
+        <v>50</v>
+      </c>
+      <c r="E57" s="20">
+        <v>40</v>
+      </c>
+      <c r="F57" s="20">
+        <v>58</v>
+      </c>
+      <c r="G57" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="20">
+        <v>35</v>
+      </c>
+      <c r="D58" s="20">
+        <v>35</v>
+      </c>
+      <c r="E58" s="20">
+        <v>35</v>
+      </c>
+      <c r="F58" s="20">
+        <v>35</v>
+      </c>
+      <c r="G58" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+    </row>
+    <row r="87" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+    </row>
+    <row r="88" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+    </row>
+    <row r="92" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+    </row>
+    <row r="99" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+    </row>
+    <row r="100" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+    </row>
+    <row r="102" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+    </row>
+    <row r="103" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+    </row>
+    <row r="104" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+    </row>
+    <row r="105" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+    </row>
+    <row r="106" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+    </row>
+    <row r="107" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+    </row>
+    <row r="108" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+    </row>
+    <row r="109" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+    </row>
+    <row r="110" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+    </row>
+    <row r="111" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+    </row>
+    <row r="112" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+    </row>
+    <row r="113" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+    </row>
+    <row r="114" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+    </row>
+    <row r="115" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+    </row>
+    <row r="116" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+    </row>
+    <row r="117" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+    </row>
+    <row r="118" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+    </row>
+    <row r="119" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+    </row>
+    <row r="120" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+    </row>
+    <row r="121" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+    </row>
+    <row r="122" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+    </row>
+    <row r="123" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+    </row>
+    <row r="124" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+    </row>
+    <row r="125" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+    </row>
+    <row r="126" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+    </row>
+    <row r="127" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+    </row>
+    <row r="128" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+    </row>
+    <row r="129" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+    </row>
+    <row r="130" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+    </row>
+    <row r="131" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+    </row>
+    <row r="132" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+    </row>
+    <row r="133" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+    </row>
+    <row r="134" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+    </row>
+    <row r="135" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+    </row>
+    <row r="136" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+    </row>
+    <row r="137" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+    </row>
+    <row r="138" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+    </row>
+    <row r="139" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+    </row>
+    <row r="140" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+    </row>
+    <row r="141" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+    </row>
+    <row r="142" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+    </row>
+    <row r="143" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+    </row>
+    <row r="144" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+    </row>
+    <row r="145" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+    </row>
+    <row r="146" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+    </row>
+    <row r="147" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+    </row>
+    <row r="148" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+    </row>
+    <row r="149" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+    </row>
+    <row r="150" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+    </row>
+    <row r="151" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+    </row>
+    <row r="152" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+    </row>
+    <row r="153" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+    </row>
+    <row r="154" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+    </row>
+    <row r="155" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+    </row>
+    <row r="156" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+    </row>
+    <row r="157" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+    </row>
+    <row r="158" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+    </row>
+    <row r="159" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+    </row>
+    <row r="160" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+    </row>
+    <row r="161" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+    </row>
+    <row r="162" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+    </row>
+    <row r="163" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+    </row>
+    <row r="164" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+    </row>
+    <row r="165" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+    </row>
+    <row r="166" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+    </row>
+    <row r="167" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+    </row>
+    <row r="168" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+    </row>
+    <row r="169" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+    </row>
+    <row r="170" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+    </row>
+    <row r="171" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+    </row>
+    <row r="172" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+    </row>
+    <row r="173" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+    </row>
+    <row r="174" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+    </row>
+    <row r="175" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+    </row>
+    <row r="176" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+    </row>
+    <row r="177" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+    </row>
+    <row r="178" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+    </row>
+    <row r="179" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+    </row>
+    <row r="180" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+    </row>
+    <row r="181" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+    </row>
+    <row r="182" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+    </row>
+    <row r="183" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+    </row>
+    <row r="184" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+    </row>
+    <row r="185" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+    </row>
+    <row r="186" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+    </row>
+    <row r="187" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+    </row>
+    <row r="188" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F188" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3042,7 +4954,7 @@
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="H5:BO42">
+  <conditionalFormatting sqref="H5:BO187">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3068,7 +4980,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:BO43">
+  <conditionalFormatting sqref="B188:BO188">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/企画書＆ガントチャート/ガントチャート２.xlsx
+++ b/企画書＆ガントチャート/ガントチャート２.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD39AEB-9428-46EF-A3BC-DEC06AE1A9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1A90A1-C1C5-443F-9392-C3BBB237D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>プロジェクト計画シート</t>
   </si>
@@ -424,6 +424,10 @@
   </si>
   <si>
     <t>セーブ　ロード</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ハヤシ</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1270,6 +1274,33 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="39" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1287,33 +1318,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="39" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1766,8 +1770,8 @@
   </sheetPr>
   <dimension ref="B1:BO188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1800,13 +1804,13 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1814,56 +1818,56 @@
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
       <c r="AX2" s="18"/>
     </row>
     <row r="3" spans="2:67" s="15" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -1890,12 +1894,12 @@
       <c r="AA3" s="14"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="19">
         <v>1</v>
       </c>
@@ -2078,14 +2082,14 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3240,7 +3244,7 @@
       <c r="E34" s="20">
         <v>21</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="27">
         <v>3</v>
       </c>
       <c r="G34" s="21">
@@ -3472,14 +3476,14 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3505,11 +3509,11 @@
       <c r="B42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3652,22 +3656,22 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="22">
         <v>10</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="22">
         <v>20</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="22">
         <v>10</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="22">
         <v>15</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="30">
         <v>1</v>
       </c>
       <c r="H46" s="4"/>
@@ -3691,7 +3695,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="2:27" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="20" t="s">
         <v>48</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:27" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
         <v>50</v>
       </c>
@@ -3723,17 +3727,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-    </row>
-    <row r="50" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="20" t="s">
         <v>49</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="20" t="s">
         <v>53</v>
       </c>
@@ -3773,27 +3777,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="29">
-        <v>1</v>
-      </c>
-      <c r="D52" s="29">
+      <c r="C52" s="23">
+        <v>1</v>
+      </c>
+      <c r="D52" s="23">
         <v>10</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="23">
         <v>3</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="23">
         <v>5</v>
       </c>
       <c r="G52" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="20" t="s">
         <v>59</v>
       </c>
@@ -3813,17 +3817,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-    </row>
-    <row r="55" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="20" t="s">
         <v>55</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="20" t="s">
         <v>56</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="20" t="s">
         <v>57</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="20" t="s">
         <v>58</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -3911,7 +3915,7 @@
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -3919,7 +3923,7 @@
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
     </row>
-    <row r="61" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -3927,7 +3931,7 @@
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -3935,15 +3939,17 @@
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-    </row>
-    <row r="64" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+    </row>
+    <row r="64" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -3951,7 +3957,7 @@
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
     </row>
-    <row r="65" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -3959,7 +3965,7 @@
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -3967,7 +3973,7 @@
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -3975,7 +3981,7 @@
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -3983,7 +3989,7 @@
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -3991,7 +3997,7 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
     </row>
-    <row r="70" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -3999,7 +4005,7 @@
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
     </row>
-    <row r="71" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -4007,7 +4013,7 @@
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -4015,7 +4021,7 @@
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -4023,7 +4029,7 @@
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -4031,7 +4037,7 @@
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
     </row>
-    <row r="75" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -4039,7 +4045,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
     </row>
-    <row r="76" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -4047,7 +4053,7 @@
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -4055,7 +4061,7 @@
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
     </row>
-    <row r="78" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -4063,7 +4069,7 @@
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
     </row>
-    <row r="79" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -4071,7 +4077,7 @@
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -4079,7 +4085,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
     </row>
-    <row r="81" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -4087,7 +4093,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
     </row>
-    <row r="82" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -4095,7 +4101,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
     </row>
-    <row r="83" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -4103,7 +4109,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -4111,7 +4117,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -4119,7 +4125,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -4127,7 +4133,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
     </row>
-    <row r="87" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
@@ -4135,7 +4141,7 @@
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -4143,7 +4149,7 @@
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -4151,7 +4157,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
@@ -4159,7 +4165,7 @@
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -4167,7 +4173,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -4175,7 +4181,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
     </row>
-    <row r="93" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -4183,7 +4189,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -4191,7 +4197,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -4199,7 +4205,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
     </row>
-    <row r="96" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -4207,7 +4213,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
     </row>
-    <row r="97" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -4215,7 +4221,7 @@
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
     </row>
-    <row r="98" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -4223,7 +4229,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
     </row>
-    <row r="99" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -4231,7 +4237,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -4239,7 +4245,7 @@
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -4247,7 +4253,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
     </row>
-    <row r="102" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -4255,7 +4261,7 @@
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -4263,7 +4269,7 @@
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
     </row>
-    <row r="104" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -4271,7 +4277,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
     </row>
-    <row r="105" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -4279,7 +4285,7 @@
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
     </row>
-    <row r="106" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -4287,7 +4293,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
     </row>
-    <row r="107" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -4295,7 +4301,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
     </row>
-    <row r="108" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -4303,7 +4309,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
     </row>
-    <row r="109" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -4311,7 +4317,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
     </row>
-    <row r="110" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -4319,7 +4325,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
     </row>
-    <row r="111" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -4327,7 +4333,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
     </row>
-    <row r="112" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -4335,7 +4341,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
     </row>
-    <row r="113" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -4343,7 +4349,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
     </row>
-    <row r="114" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -4351,7 +4357,7 @@
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
     </row>
-    <row r="115" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -4359,7 +4365,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
     </row>
-    <row r="116" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -4367,7 +4373,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
     </row>
-    <row r="117" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -4375,7 +4381,7 @@
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
     </row>
-    <row r="118" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -4383,7 +4389,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
     </row>
-    <row r="119" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -4391,7 +4397,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
     </row>
-    <row r="120" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -4399,7 +4405,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
     </row>
-    <row r="121" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -4407,7 +4413,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
     </row>
-    <row r="122" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -4415,7 +4421,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
     </row>
-    <row r="123" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -4423,7 +4429,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
     </row>
-    <row r="124" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -4431,7 +4437,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
     </row>
-    <row r="125" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -4439,7 +4445,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
     </row>
-    <row r="126" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -4447,7 +4453,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
     </row>
-    <row r="127" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -4455,7 +4461,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
     </row>
-    <row r="128" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
@@ -4463,7 +4469,7 @@
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
     </row>
-    <row r="129" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -4471,7 +4477,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
     </row>
-    <row r="130" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -4479,7 +4485,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
     </row>
-    <row r="131" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -4487,7 +4493,7 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
     </row>
-    <row r="132" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -4495,7 +4501,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
     </row>
-    <row r="133" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -4503,7 +4509,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
     </row>
-    <row r="134" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -4511,7 +4517,7 @@
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
     </row>
-    <row r="135" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -4519,7 +4525,7 @@
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
     </row>
-    <row r="136" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -4527,7 +4533,7 @@
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
     </row>
-    <row r="137" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -4535,7 +4541,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
     </row>
-    <row r="138" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -4543,7 +4549,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
     </row>
-    <row r="139" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -4551,7 +4557,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
-    <row r="140" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -4559,7 +4565,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
     </row>
-    <row r="141" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -4567,7 +4573,7 @@
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
-    <row r="142" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="20"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -4575,7 +4581,7 @@
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
     </row>
-    <row r="143" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -4583,7 +4589,7 @@
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
-    <row r="144" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="20"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -4591,7 +4597,7 @@
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
     </row>
-    <row r="145" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="20"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -4599,7 +4605,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
     </row>
-    <row r="146" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="20"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -4607,7 +4613,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
     </row>
-    <row r="147" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -4615,7 +4621,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
     </row>
-    <row r="148" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -4623,7 +4629,7 @@
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
     </row>
-    <row r="149" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="20"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -4631,7 +4637,7 @@
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
     </row>
-    <row r="150" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -4639,7 +4645,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
     </row>
-    <row r="151" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -4647,7 +4653,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
     </row>
-    <row r="152" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -4655,7 +4661,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
     </row>
-    <row r="153" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -4663,7 +4669,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
     </row>
-    <row r="154" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -4671,7 +4677,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
     </row>
-    <row r="155" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="20"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -4679,7 +4685,7 @@
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
     </row>
-    <row r="156" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -4687,7 +4693,7 @@
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
     </row>
-    <row r="157" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
@@ -4695,7 +4701,7 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
     </row>
-    <row r="158" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
@@ -4703,7 +4709,7 @@
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
     </row>
-    <row r="159" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
@@ -4711,7 +4717,7 @@
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
     </row>
-    <row r="160" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
@@ -4719,7 +4725,7 @@
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
     </row>
-    <row r="161" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="20"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
@@ -4727,7 +4733,7 @@
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
-    <row r="162" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="20"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -4735,7 +4741,7 @@
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
     </row>
-    <row r="163" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="20"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
@@ -4743,7 +4749,7 @@
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
-    <row r="164" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="20"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
@@ -4751,7 +4757,7 @@
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
     </row>
-    <row r="165" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
@@ -4759,7 +4765,7 @@
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
-    <row r="166" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="20"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
@@ -4767,7 +4773,7 @@
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
@@ -4775,7 +4781,7 @@
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
     </row>
-    <row r="168" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
@@ -4783,7 +4789,7 @@
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
     </row>
-    <row r="169" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
@@ -4791,7 +4797,7 @@
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
     </row>
-    <row r="170" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
@@ -4799,7 +4805,7 @@
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
     </row>
-    <row r="171" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
@@ -4807,7 +4813,7 @@
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
     </row>
-    <row r="172" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
@@ -4815,7 +4821,7 @@
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
     </row>
-    <row r="173" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="20"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
@@ -4823,7 +4829,7 @@
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
     </row>
-    <row r="174" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="20"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
@@ -4831,7 +4837,7 @@
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
     </row>
-    <row r="175" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="20"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
@@ -4839,7 +4845,7 @@
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
@@ -4847,7 +4853,7 @@
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
     </row>
-    <row r="177" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
@@ -4855,7 +4861,7 @@
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="20"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
@@ -4863,7 +4869,7 @@
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
     </row>
-    <row r="179" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
@@ -4871,7 +4877,7 @@
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="20"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
@@ -4879,7 +4885,7 @@
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
     </row>
-    <row r="181" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="20"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
@@ -4887,7 +4893,7 @@
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
     </row>
-    <row r="182" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="20"/>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
@@ -4895,7 +4901,7 @@
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
     </row>
-    <row r="183" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="20"/>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
@@ -4903,7 +4909,7 @@
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
     </row>
-    <row r="184" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="20"/>
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
@@ -4911,7 +4917,7 @@
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
     </row>
-    <row r="185" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -4919,7 +4925,7 @@
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
     </row>
-    <row r="186" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="20"/>
       <c r="C186" s="20"/>
       <c r="D186" s="20"/>
@@ -4927,7 +4933,7 @@
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
     </row>
-    <row r="187" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:7" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="20"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
